--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\MIME\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\project_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="11232" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="11232" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>o  Просмотр и выполнение назначенных задач</t>
   </si>
   <si>
-    <t>o  Управление задачами: создание, назначение исполнителей, изменение статусов.</t>
-  </si>
-  <si>
     <t>o  Отметка о выполнении задач</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>o Пагинация для удобного просмотра списка задач.</t>
+  </si>
+  <si>
+    <t>o  Управление задачами: создание, назначение исполнителей</t>
   </si>
 </sst>
 </file>
@@ -487,12 +487,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -506,6 +500,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,7 +994,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="AG13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="5:33" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3196,7 +3198,7 @@
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3208,11 +3210,11 @@
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>5</v>
@@ -3221,10 +3223,10 @@
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
@@ -3232,31 +3234,31 @@
     </row>
     <row r="8" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
@@ -3266,7 +3268,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
@@ -3276,7 +3278,7 @@
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="15"/>
     </row>
@@ -3284,7 +3286,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -3292,71 +3294,72 @@
       <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>28</v>
+      <c r="B14" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="27" t="s">
-        <v>33</v>
+      <c r="B17" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="27" t="s">
-        <v>34</v>
+      <c r="B18" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="11232" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="11232" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3143,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3285,7 +3285,7 @@
     <row r="13" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>

--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="11232" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="11232" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Админ</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>o  Управление задачами: создание, назначение исполнителей</t>
+  </si>
+  <si>
+    <t>селект(год/месяц/неделя)</t>
+  </si>
+  <si>
+    <t>селект (исполнитель/проект)</t>
+  </si>
+  <si>
+    <t>(+)</t>
   </si>
 </sst>
 </file>
@@ -3141,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="76" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,7 +3163,7 @@
     <col min="4" max="4" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3175,7 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3203,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="32" t="s">
         <v>41</v>
@@ -3220,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="25" t="s">
         <v>18</v>
@@ -3232,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="32" t="s">
         <v>20</v>
@@ -3242,7 +3251,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="22" t="s">
         <v>22</v>
@@ -3252,7 +3261,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="32" t="s">
         <v>24</v>
@@ -3264,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="23" t="s">
@@ -3274,23 +3283,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
@@ -3300,7 +3318,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3328,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>30</v>
       </c>

--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="11232" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="11232" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -204,30 +204,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -243,13 +225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -451,11 +433,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -472,49 +451,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3152,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="76" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3164,29 +3137,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10"/>
@@ -3196,7 +3169,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10"/>
@@ -3204,69 +3177,69 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3276,7 +3249,7 @@
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3286,10 +3259,10 @@
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="F12" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3270,7 @@
     <row r="13" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>
@@ -3312,7 +3285,7 @@
       <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
@@ -3322,7 +3295,7 @@
       <c r="A15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="11"/>
@@ -3332,7 +3305,7 @@
       <c r="A16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
@@ -3340,40 +3313,40 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6"/>
     </row>
   </sheetData>

--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="11232" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22884" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -213,12 +213,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,43 +451,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3126,7 +3126,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3149,17 +3149,17 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10"/>
@@ -3169,7 +3169,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10"/>
@@ -3177,69 +3177,69 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3249,7 +3249,7 @@
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3259,7 +3259,7 @@
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="14"/>
@@ -3270,7 +3270,7 @@
     <row r="13" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>
@@ -3282,30 +3282,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
@@ -3321,29 +3321,29 @@
     </row>
     <row r="18" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="15"/>

--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22884" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22884" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -454,15 +454,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -488,6 +479,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3126,7 +3123,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3149,17 +3146,17 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10"/>
@@ -3169,7 +3166,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10"/>
@@ -3177,69 +3174,69 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3249,7 +3246,7 @@
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3259,7 +3256,7 @@
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="14"/>
@@ -3270,7 +3267,7 @@
     <row r="13" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>
@@ -3282,30 +3279,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
@@ -3313,7 +3310,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
@@ -3321,17 +3318,17 @@
     </row>
     <row r="18" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -3340,10 +3337,10 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="15"/>

--- a/pm.v3.xlsx
+++ b/pm.v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22884" windowHeight="2304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22884" windowHeight="2304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -204,18 +204,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -406,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -433,7 +427,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,40 +445,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3122,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,17 +3137,17 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10"/>
@@ -3166,7 +3157,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10"/>
@@ -3174,69 +3165,69 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3246,7 +3237,7 @@
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3256,7 +3247,7 @@
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="14"/>
@@ -3267,7 +3258,7 @@
     <row r="13" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="6"/>
@@ -3279,30 +3270,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
@@ -3310,7 +3301,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
@@ -3318,29 +3309,29 @@
     </row>
     <row r="18" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="15"/>
